--- a/assets/disciplinas/LOB1217.xlsx
+++ b/assets/disciplinas/LOB1217.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EA-7</t>
+    <t>EA-6</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -133,7 +133,7 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOB1258 -  Hidráulica Aplicada  (Requisito)
+    <t xml:space="preserve">LOQ4084 -  Fenômenos de Transporte II  (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOB1217.xlsx
+++ b/assets/disciplinas/LOB1217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2020</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -100,7 +100,13 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>- Reologia de fluidos,- Dimensionamento de tubulações,- Acessórios e bombeamento para fluidos industriais,- Agitação e mistura,- Caracterização de partículas e leito de partículas,- Sedimentação,- Filtração,- Processos com membranas.- Operações unitárias de troca térmica: trocadores de calor e evaporadores.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>- fluid rheology,- Sizing of pipes,- Accessories and pumping for industrial fluids,- Stirring and mixing,- Particle characterization and particle bed,- Sedimentation,- Filtration,- Processes with membranes.- Unit heat exchange operations: heat exchangers and evaporators.</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -656,83 +662,83 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOB1217.xlsx
+++ b/assets/disciplinas/LOB1217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer aos alunos os conceitos básicos e técnicas de dimensionamento dos principais processos e operações unitárias envolvidas no escoamento de fluidos, sistemas particulados e troca térmica.</t>
+    <t>4780627 - Ana Lucia Gabas Ferreira</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>4780627 - Ana Lucia Gabas Ferreira</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Operações unitárias e processos: reologia de fluidos, dimensionamento de tubulações e acessórios, bombeamento, agitação e mistura, caracterização de partículas e leito de partículas, sedimentação, filtração, processos com membranas. Operações unitárias de troca térmica: trocadores de calor e evaporadores.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>- Reologia de fluidos,- Dimensionamento de tubulações,- Acessórios e bombeamento para fluidos industriais,- Agitação e mistura,- Caracterização de partículas e leito de partículas,- Sedimentação,- Filtração,- Processos com membranas.- Operações unitárias de troca térmica: trocadores de calor e evaporadores.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Avaliação composta por duas provas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média das notas das provas.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Prova única com todo o conteúdo da disciplina, sendo que a nota [(nota final do semestre + nota de recuperação)/2] deverá ser igual ou superior a 5,0 (cinco).</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Bibliografia básica:DI BERNARDO, L., Métodos e Técnicas de Tratamento de Água, ABES, Rio de Janeiro, Brasil, 1992.FOUST, A.S., WENZEL, L. A., CLUMP, C.W., MAUS, L., ANDERSEN, L.B. Princípio das operações unitárias. Rio de Janeiro: Editora Guanabara Dois, 1982.GEANKOPLIS, C.J. Procesos de transporte y operaciones unitarias. Compañía Editorial Continental, S.A. de C.V. México, D.F., 1998.PERRY, R.H. and CHILTON, C.H. Manual de Engenharia Química. 5a ed., Guanabara Dois, Rio de Janeiro, 1986.REYNOLDS, T.D.; RICHARDS, P. Unit Operations and Processes in environmental Engineering. PWS Publishing, 1995.MACINTYRE, A.J. Bombas e Instalações de Bombeamento. LTC, Rio de Janeiro, 1997</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -668,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOB1217.xlsx
+++ b/assets/disciplinas/LOB1217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer aos alunos os conceitos básicos e técnicas de dimensionamento dos principais processos e operações unitárias envolvidas no escoamento de fluidos, sistemas particulados e troca térmica.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Supply the students with the basic concepts and techniques of dimensioning the main processes and unit operations involved in fluid flow, particulate systems and thermal exchange.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>4780627 - Ana Lucia Gabas Ferreira</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Supply the students with the basic concepts and techniques of dimensioning the main processes and unit operations involved in fluid flow, particulate systems and thermal exchange.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Operações unitárias e processos: reologia de fluidos, dimensionamento de tubulações e acessórios, bombeamento, agitação e mistura, caracterização de partículas e leito de partículas, sedimentação, filtração, processos com membranas. Operações unitárias de troca térmica: trocadores de calor e evaporadores.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>- Reologia de fluidos,- Dimensionamento de tubulações,- Acessórios e bombeamento para fluidos industriais,- Agitação e mistura,- Caracterização de partículas e leito de partículas,- Sedimentação,- Filtração,- Processos com membranas.- Operações unitárias de troca térmica: trocadores de calor e evaporadores.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Avaliação composta por duas provas.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Avaliação composta por duas provas.</t>
+    <t>Média das notas das provas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média das notas das provas.</t>
+    <t>Prova única com todo o conteúdo da disciplina, sendo que a nota [(nota final do semestre + nota de recuperação)/2] deverá ser igual ou superior a 5,0 (cinco).</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Prova única com todo o conteúdo da disciplina, sendo que a nota [(nota final do semestre + nota de recuperação)/2] deverá ser igual ou superior a 5,0 (cinco).</t>
+    <t>Bibliografia básica:DI BERNARDO, L., Métodos e Técnicas de Tratamento de Água, ABES, Rio de Janeiro, Brasil, 1992.FOUST, A.S., WENZEL, L. A., CLUMP, C.W., MAUS, L., ANDERSEN, L.B. Princípio das operações unitárias. Rio de Janeiro: Editora Guanabara Dois, 1982.GEANKOPLIS, C.J. Procesos de transporte y operaciones unitarias. Compañía Editorial Continental, S.A. de C.V. México, D.F., 1998.PERRY, R.H. and CHILTON, C.H. Manual de Engenharia Química. 5a ed., Guanabara Dois, Rio de Janeiro, 1986.REYNOLDS, T.D.; RICHARDS, P. Unit Operations and Processes in environmental Engineering. PWS Publishing, 1995.MACINTYRE, A.J. Bombas e Instalações de Bombeamento. LTC, Rio de Janeiro, 1997</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
